--- a/data/foods.xlsx
+++ b/data/foods.xlsx
@@ -15,15 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="612">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>type_id</t>
-  </si>
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="611">
+  <si>
+    <t>foods_id</t>
+  </si>
+  <si>
+    <t>foods_name</t>
   </si>
   <si>
     <t>Bagels</t>
@@ -2135,4540 +2132,3301 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
-      <c r="B5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>5.0</v>
       </c>
-      <c r="B6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>6.0</v>
       </c>
-      <c r="B7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>7.0</v>
       </c>
-      <c r="B8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>8.0</v>
       </c>
-      <c r="B9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>9.0</v>
       </c>
-      <c r="B10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>10.0</v>
       </c>
-      <c r="B11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>11.0</v>
       </c>
-      <c r="B12" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>12.0</v>
       </c>
-      <c r="B13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
         <v>13.0</v>
       </c>
-      <c r="B14" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
         <v>14.0</v>
       </c>
-      <c r="B15" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <v>15.0</v>
       </c>
-      <c r="B16" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
         <v>16.0</v>
       </c>
-      <c r="B17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <v>17.0</v>
       </c>
-      <c r="B18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>19</v>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
         <v>18.0</v>
       </c>
-      <c r="B19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <v>19.0</v>
       </c>
-      <c r="B20" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
         <v>20.0</v>
       </c>
-      <c r="B21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>22</v>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
         <v>21.0</v>
       </c>
-      <c r="B22" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>23</v>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
         <v>22.0</v>
       </c>
-      <c r="B23" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>24</v>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
         <v>23.0</v>
       </c>
-      <c r="B24" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>25</v>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
         <v>24.0</v>
       </c>
-      <c r="B25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>26</v>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
         <v>25.0</v>
       </c>
-      <c r="B26" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>27</v>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
         <v>26.0</v>
       </c>
-      <c r="B27" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>28</v>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
         <v>27.0</v>
       </c>
-      <c r="B28" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>29</v>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
         <v>28.0</v>
       </c>
-      <c r="B29" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>30</v>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
         <v>29.0</v>
       </c>
-      <c r="B30" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>31</v>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
         <v>30.0</v>
       </c>
-      <c r="B31" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>32</v>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
         <v>31.0</v>
       </c>
-      <c r="B32" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>33</v>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
         <v>32.0</v>
       </c>
-      <c r="B33" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>34</v>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
         <v>33.0</v>
       </c>
-      <c r="B34" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>35</v>
+      <c r="B34" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
         <v>34.0</v>
       </c>
-      <c r="B35" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>36</v>
+      <c r="B35" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
         <v>35.0</v>
       </c>
-      <c r="B36" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>37</v>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
         <v>36.0</v>
       </c>
-      <c r="B37" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>38</v>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
         <v>37.0</v>
       </c>
-      <c r="B38" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>39</v>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
         <v>38.0</v>
       </c>
-      <c r="B39" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>40</v>
+      <c r="B39" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
         <v>39.0</v>
       </c>
-      <c r="B40" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>41</v>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
         <v>40.0</v>
       </c>
-      <c r="B41" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>42</v>
+      <c r="B41" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
         <v>41.0</v>
       </c>
-      <c r="B42" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>43</v>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
         <v>42.0</v>
       </c>
-      <c r="B43" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>44</v>
+      <c r="B43" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
         <v>43.0</v>
       </c>
-      <c r="B44" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>45</v>
+      <c r="B44" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
         <v>44.0</v>
       </c>
-      <c r="B45" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>46</v>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
         <v>45.0</v>
       </c>
-      <c r="B46" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>47</v>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
         <v>46.0</v>
       </c>
-      <c r="B47" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>48</v>
+      <c r="B47" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
         <v>47.0</v>
       </c>
-      <c r="B48" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>49</v>
+      <c r="B48" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
         <v>48.0</v>
       </c>
-      <c r="B49" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>50</v>
+      <c r="B49" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
         <v>49.0</v>
       </c>
-      <c r="B50" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>51</v>
+      <c r="B50" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
         <v>50.0</v>
       </c>
-      <c r="B51" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>52</v>
+      <c r="B51" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
         <v>51.0</v>
       </c>
-      <c r="B52" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>53</v>
+      <c r="B52" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
         <v>52.0</v>
       </c>
-      <c r="B53" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>54</v>
+      <c r="B53" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
         <v>53.0</v>
       </c>
-      <c r="B54" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>55</v>
+      <c r="B54" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1">
         <v>54.0</v>
       </c>
-      <c r="B55" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>56</v>
+      <c r="B55" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
         <v>55.0</v>
       </c>
-      <c r="B56" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>57</v>
+      <c r="B56" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
         <v>56.0</v>
       </c>
-      <c r="B57" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>58</v>
+      <c r="B57" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
         <v>57.0</v>
       </c>
-      <c r="B58" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>59</v>
+      <c r="B58" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
         <v>58.0</v>
       </c>
-      <c r="B59" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>60</v>
+      <c r="B59" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
         <v>59.0</v>
       </c>
-      <c r="B60" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>61</v>
+      <c r="B60" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1">
         <v>60.0</v>
       </c>
-      <c r="B61" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>62</v>
+      <c r="B61" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
         <v>61.0</v>
       </c>
-      <c r="B62" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>63</v>
+      <c r="B62" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
         <v>62.0</v>
       </c>
-      <c r="B63" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>64</v>
+      <c r="B63" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
         <v>63.0</v>
       </c>
-      <c r="B64" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>65</v>
+      <c r="B64" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
         <v>64.0</v>
       </c>
-      <c r="B65" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>66</v>
+      <c r="B65" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
         <v>65.0</v>
       </c>
-      <c r="B66" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>67</v>
+      <c r="B66" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
         <v>66.0</v>
       </c>
-      <c r="B67" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>68</v>
+      <c r="B67" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
         <v>67.0</v>
       </c>
-      <c r="B68" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>69</v>
+      <c r="B68" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
         <v>68.0</v>
       </c>
-      <c r="B69" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>70</v>
+      <c r="B69" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
         <v>69.0</v>
       </c>
-      <c r="B70" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>71</v>
+      <c r="B70" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
         <v>70.0</v>
       </c>
-      <c r="B71" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>72</v>
+      <c r="B71" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
         <v>71.0</v>
       </c>
-      <c r="B72" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>73</v>
+      <c r="B72" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
         <v>72.0</v>
       </c>
-      <c r="B73" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>74</v>
+      <c r="B73" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
         <v>73.0</v>
       </c>
-      <c r="B74" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>75</v>
+      <c r="B74" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
         <v>74.0</v>
       </c>
-      <c r="B75" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>76</v>
+      <c r="B75" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
         <v>75.0</v>
       </c>
-      <c r="B76" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>77</v>
+      <c r="B76" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
         <v>76.0</v>
       </c>
-      <c r="B77" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>78</v>
+      <c r="B77" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
         <v>77.0</v>
       </c>
-      <c r="B78" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>79</v>
+      <c r="B78" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
         <v>78.0</v>
       </c>
-      <c r="B79" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>80</v>
+      <c r="B79" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
         <v>79.0</v>
       </c>
-      <c r="B80" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>81</v>
+      <c r="B80" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1">
         <v>80.0</v>
       </c>
-      <c r="B81" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>82</v>
+      <c r="B81" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1">
         <v>81.0</v>
       </c>
-      <c r="B82" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>83</v>
+      <c r="B82" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1">
         <v>82.0</v>
       </c>
-      <c r="B83" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>84</v>
+      <c r="B83" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1">
         <v>83.0</v>
       </c>
-      <c r="B84" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>85</v>
+      <c r="B84" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1">
         <v>84.0</v>
       </c>
-      <c r="B85" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>86</v>
+      <c r="B85" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1">
         <v>85.0</v>
       </c>
-      <c r="B86" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>87</v>
+      <c r="B86" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1">
         <v>86.0</v>
       </c>
-      <c r="B87" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>88</v>
+      <c r="B87" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1">
         <v>87.0</v>
       </c>
-      <c r="B88" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>89</v>
+      <c r="B88" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1">
         <v>88.0</v>
       </c>
-      <c r="B89" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>90</v>
+      <c r="B89" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1">
         <v>89.0</v>
       </c>
-      <c r="B90" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>91</v>
+      <c r="B90" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1">
         <v>90.0</v>
       </c>
-      <c r="B91" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>92</v>
+      <c r="B91" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1">
         <v>91.0</v>
       </c>
-      <c r="B92" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>93</v>
+      <c r="B92" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1">
         <v>92.0</v>
       </c>
-      <c r="B93" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>94</v>
+      <c r="B93" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1">
         <v>93.0</v>
       </c>
-      <c r="B94" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>95</v>
+      <c r="B94" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1">
         <v>94.0</v>
       </c>
-      <c r="B95" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>96</v>
+      <c r="B95" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1">
         <v>95.0</v>
       </c>
-      <c r="B96" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>97</v>
+      <c r="B96" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1">
         <v>96.0</v>
       </c>
-      <c r="B97" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>98</v>
+      <c r="B97" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1">
         <v>97.0</v>
       </c>
-      <c r="B98" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>99</v>
+      <c r="B98" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1">
         <v>98.0</v>
       </c>
-      <c r="B99" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>100</v>
+      <c r="B99" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1">
         <v>99.0</v>
       </c>
-      <c r="B100" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>101</v>
+      <c r="B100" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1">
         <v>100.0</v>
       </c>
-      <c r="B101" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>102</v>
+      <c r="B101" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1">
         <v>101.0</v>
       </c>
-      <c r="B102" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>103</v>
+      <c r="B102" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1">
         <v>102.0</v>
       </c>
-      <c r="B103" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>104</v>
+      <c r="B103" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1">
         <v>103.0</v>
       </c>
-      <c r="B104" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>105</v>
+      <c r="B104" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1">
         <v>104.0</v>
       </c>
-      <c r="B105" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>106</v>
+      <c r="B105" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1">
         <v>105.0</v>
       </c>
-      <c r="B106" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>107</v>
+      <c r="B106" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1">
         <v>106.0</v>
       </c>
-      <c r="B107" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>108</v>
+      <c r="B107" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1">
         <v>107.0</v>
       </c>
-      <c r="B108" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>109</v>
+      <c r="B108" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1">
         <v>108.0</v>
       </c>
-      <c r="B109" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>110</v>
+      <c r="B109" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1">
         <v>109.0</v>
       </c>
-      <c r="B110" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>111</v>
+      <c r="B110" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1">
         <v>110.0</v>
       </c>
-      <c r="B111" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>112</v>
+      <c r="B111" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1">
         <v>111.0</v>
       </c>
-      <c r="B112" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>113</v>
+      <c r="B112" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1">
         <v>112.0</v>
       </c>
-      <c r="B113" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>114</v>
+      <c r="B113" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1">
         <v>113.0</v>
       </c>
-      <c r="B114" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>115</v>
+      <c r="B114" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1">
         <v>114.0</v>
       </c>
-      <c r="B115" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>116</v>
+      <c r="B115" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1">
         <v>115.0</v>
       </c>
-      <c r="B116" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>117</v>
+      <c r="B116" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1">
         <v>116.0</v>
       </c>
-      <c r="B117" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>118</v>
+      <c r="B117" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1">
         <v>117.0</v>
       </c>
-      <c r="B118" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>119</v>
+      <c r="B118" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1">
         <v>118.0</v>
       </c>
-      <c r="B119" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>120</v>
+      <c r="B119" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1">
         <v>119.0</v>
       </c>
-      <c r="B120" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>121</v>
+      <c r="B120" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1">
         <v>120.0</v>
       </c>
-      <c r="B121" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>122</v>
+      <c r="B121" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1">
         <v>121.0</v>
       </c>
-      <c r="B122" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>123</v>
+      <c r="B122" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1">
         <v>122.0</v>
       </c>
-      <c r="B123" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>124</v>
+      <c r="B123" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1">
         <v>123.0</v>
       </c>
-      <c r="B124" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>125</v>
+      <c r="B124" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1">
         <v>124.0</v>
       </c>
-      <c r="B125" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>126</v>
+      <c r="B125" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1">
         <v>125.0</v>
       </c>
-      <c r="B126" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>127</v>
+      <c r="B126" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1">
         <v>126.0</v>
       </c>
-      <c r="B127" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>128</v>
+      <c r="B127" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1">
         <v>127.0</v>
       </c>
-      <c r="B128" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>129</v>
+      <c r="B128" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1">
         <v>128.0</v>
       </c>
-      <c r="B129" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>130</v>
+      <c r="B129" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
         <v>129.0</v>
       </c>
-      <c r="B130" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>131</v>
+      <c r="B130" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
         <v>130.0</v>
       </c>
-      <c r="B131" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>132</v>
+      <c r="B131" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
         <v>131.0</v>
       </c>
-      <c r="B132" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>133</v>
+      <c r="B132" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
         <v>132.0</v>
       </c>
-      <c r="B133" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>134</v>
+      <c r="B133" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
         <v>133.0</v>
       </c>
-      <c r="B134" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>135</v>
+      <c r="B134" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
         <v>134.0</v>
       </c>
-      <c r="B135" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>136</v>
+      <c r="B135" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
         <v>135.0</v>
       </c>
-      <c r="B136" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>137</v>
+      <c r="B136" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
         <v>136.0</v>
       </c>
-      <c r="B137" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>138</v>
+      <c r="B137" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
         <v>137.0</v>
       </c>
-      <c r="B138" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>139</v>
+      <c r="B138" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
         <v>138.0</v>
       </c>
-      <c r="B139" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>140</v>
+      <c r="B139" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
         <v>139.0</v>
       </c>
-      <c r="B140" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>141</v>
+      <c r="B140" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
         <v>140.0</v>
       </c>
-      <c r="B141" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>142</v>
+      <c r="B141" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1">
         <v>141.0</v>
       </c>
-      <c r="B142" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>143</v>
+      <c r="B142" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1">
         <v>142.0</v>
       </c>
-      <c r="B143" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>144</v>
+      <c r="B143" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1">
         <v>143.0</v>
       </c>
-      <c r="B144" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>145</v>
+      <c r="B144" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1">
         <v>144.0</v>
       </c>
-      <c r="B145" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>146</v>
+      <c r="B145" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1">
         <v>145.0</v>
       </c>
-      <c r="B146" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>147</v>
+      <c r="B146" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1">
         <v>146.0</v>
       </c>
-      <c r="B147" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>148</v>
+      <c r="B147" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1">
         <v>147.0</v>
       </c>
-      <c r="B148" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>149</v>
+      <c r="B148" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1">
         <v>148.0</v>
       </c>
-      <c r="B149" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>150</v>
+      <c r="B149" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1">
         <v>149.0</v>
       </c>
-      <c r="B150" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>151</v>
+      <c r="B150" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1">
         <v>150.0</v>
       </c>
-      <c r="B151" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>152</v>
+      <c r="B151" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1">
         <v>151.0</v>
       </c>
-      <c r="B152" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>153</v>
+      <c r="B152" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1">
         <v>152.0</v>
       </c>
-      <c r="B153" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>154</v>
+      <c r="B153" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1">
         <v>153.0</v>
       </c>
-      <c r="B154" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>155</v>
+      <c r="B154" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1">
         <v>154.0</v>
       </c>
-      <c r="B155" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>156</v>
+      <c r="B155" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1">
         <v>155.0</v>
       </c>
-      <c r="B156" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>157</v>
+      <c r="B156" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1">
         <v>156.0</v>
       </c>
-      <c r="B157" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>158</v>
+      <c r="B157" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1">
         <v>157.0</v>
       </c>
-      <c r="B158" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>159</v>
+      <c r="B158" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1">
         <v>158.0</v>
       </c>
-      <c r="B159" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>160</v>
+      <c r="B159" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1">
         <v>159.0</v>
       </c>
-      <c r="B160" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>161</v>
+      <c r="B160" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1">
         <v>160.0</v>
       </c>
-      <c r="B161" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>162</v>
+      <c r="B161" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1">
         <v>161.0</v>
       </c>
-      <c r="B162" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>163</v>
+      <c r="B162" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1">
         <v>162.0</v>
       </c>
-      <c r="B163" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>164</v>
+      <c r="B163" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1">
         <v>163.0</v>
       </c>
-      <c r="B164" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>165</v>
+      <c r="B164" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1">
         <v>164.0</v>
       </c>
-      <c r="B165" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>166</v>
+      <c r="B165" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1">
         <v>165.0</v>
       </c>
-      <c r="B166" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>167</v>
+      <c r="B166" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1">
         <v>166.0</v>
       </c>
-      <c r="B167" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>168</v>
+      <c r="B167" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1">
         <v>167.0</v>
       </c>
-      <c r="B168" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>169</v>
+      <c r="B168" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1">
         <v>168.0</v>
       </c>
-      <c r="B169" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>170</v>
+      <c r="B169" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1">
         <v>169.0</v>
       </c>
-      <c r="B170" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>171</v>
+      <c r="B170" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1">
         <v>170.0</v>
       </c>
-      <c r="B171" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>172</v>
+      <c r="B171" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1">
         <v>171.0</v>
       </c>
-      <c r="B172" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>173</v>
+      <c r="B172" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1">
         <v>172.0</v>
       </c>
-      <c r="B173" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>174</v>
+      <c r="B173" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1">
         <v>173.0</v>
       </c>
-      <c r="B174" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>175</v>
+      <c r="B174" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1">
         <v>174.0</v>
       </c>
-      <c r="B175" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>176</v>
+      <c r="B175" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1">
         <v>175.0</v>
       </c>
-      <c r="B176" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>177</v>
+      <c r="B176" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1">
         <v>176.0</v>
       </c>
-      <c r="B177" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>178</v>
+      <c r="B177" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1">
         <v>177.0</v>
       </c>
-      <c r="B178" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>179</v>
+      <c r="B178" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1">
         <v>178.0</v>
       </c>
-      <c r="B179" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>180</v>
+      <c r="B179" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1">
         <v>179.0</v>
       </c>
-      <c r="B180" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>181</v>
+      <c r="B180" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1">
         <v>180.0</v>
       </c>
-      <c r="B181" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>182</v>
+      <c r="B181" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1">
         <v>181.0</v>
       </c>
-      <c r="B182" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>183</v>
+      <c r="B182" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1">
         <v>182.0</v>
       </c>
-      <c r="B183" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>184</v>
+      <c r="B183" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1">
         <v>183.0</v>
       </c>
-      <c r="B184" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>185</v>
+      <c r="B184" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1">
         <v>184.0</v>
       </c>
-      <c r="B185" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>186</v>
+      <c r="B185" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1">
         <v>185.0</v>
       </c>
-      <c r="B186" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>187</v>
+      <c r="B186" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1">
         <v>186.0</v>
       </c>
-      <c r="B187" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>188</v>
+      <c r="B187" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1">
         <v>187.0</v>
       </c>
-      <c r="B188" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>189</v>
+      <c r="B188" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1">
         <v>188.0</v>
       </c>
-      <c r="B189" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>190</v>
+      <c r="B189" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1">
         <v>189.0</v>
       </c>
-      <c r="B190" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>191</v>
+      <c r="B190" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1">
         <v>190.0</v>
       </c>
-      <c r="B191" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>192</v>
+      <c r="B191" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1">
         <v>191.0</v>
       </c>
-      <c r="B192" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>193</v>
+      <c r="B192" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1">
         <v>192.0</v>
       </c>
-      <c r="B193" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>194</v>
+      <c r="B193" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1">
         <v>193.0</v>
       </c>
-      <c r="B194" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>195</v>
+      <c r="B194" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1">
         <v>194.0</v>
       </c>
-      <c r="B195" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>196</v>
+      <c r="B195" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1">
         <v>195.0</v>
       </c>
-      <c r="B196" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>197</v>
+      <c r="B196" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1">
         <v>196.0</v>
       </c>
-      <c r="B197" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>198</v>
+      <c r="B197" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1">
         <v>197.0</v>
       </c>
-      <c r="B198" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>199</v>
+      <c r="B198" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1">
         <v>198.0</v>
       </c>
-      <c r="B199" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>200</v>
+      <c r="B199" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1">
         <v>199.0</v>
       </c>
-      <c r="B200" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>201</v>
+      <c r="B200" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1">
         <v>200.0</v>
       </c>
-      <c r="B201" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>202</v>
+      <c r="B201" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1">
         <v>201.0</v>
       </c>
-      <c r="B202" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>203</v>
+      <c r="B202" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1">
         <v>202.0</v>
       </c>
-      <c r="B203" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>204</v>
+      <c r="B203" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1">
         <v>203.0</v>
       </c>
-      <c r="B204" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>205</v>
+      <c r="B204" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1">
         <v>204.0</v>
       </c>
-      <c r="B205" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>206</v>
+      <c r="B205" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1">
         <v>205.0</v>
       </c>
-      <c r="B206" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>207</v>
+      <c r="B206" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1">
         <v>206.0</v>
       </c>
-      <c r="B207" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>208</v>
+      <c r="B207" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1">
         <v>207.0</v>
       </c>
-      <c r="B208" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>209</v>
+      <c r="B208" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1">
         <v>208.0</v>
       </c>
-      <c r="B209" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>210</v>
+      <c r="B209" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1">
         <v>209.0</v>
       </c>
-      <c r="B210" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>211</v>
+      <c r="B210" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1">
         <v>210.0</v>
       </c>
-      <c r="B211" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>212</v>
+      <c r="B211" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1">
         <v>211.0</v>
       </c>
-      <c r="B212" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>213</v>
+      <c r="B212" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1">
         <v>212.0</v>
       </c>
-      <c r="B213" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>214</v>
+      <c r="B213" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1">
         <v>213.0</v>
       </c>
-      <c r="B214" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>215</v>
+      <c r="B214" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1">
         <v>214.0</v>
       </c>
-      <c r="B215" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>216</v>
+      <c r="B215" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1">
         <v>215.0</v>
       </c>
-      <c r="B216" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>217</v>
+      <c r="B216" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1">
         <v>216.0</v>
       </c>
-      <c r="B217" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>218</v>
+      <c r="B217" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1">
         <v>217.0</v>
       </c>
-      <c r="B218" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>219</v>
+      <c r="B218" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1">
         <v>218.0</v>
       </c>
-      <c r="B219" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>220</v>
+      <c r="B219" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1">
         <v>219.0</v>
       </c>
-      <c r="B220" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>221</v>
+      <c r="B220" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1">
         <v>220.0</v>
       </c>
-      <c r="B221" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>222</v>
+      <c r="B221" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1">
         <v>221.0</v>
       </c>
-      <c r="B222" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>223</v>
+      <c r="B222" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1">
         <v>222.0</v>
       </c>
-      <c r="B223" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>224</v>
+      <c r="B223" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1">
         <v>223.0</v>
       </c>
-      <c r="B224" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>225</v>
+      <c r="B224" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1">
         <v>224.0</v>
       </c>
-      <c r="B225" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>226</v>
+      <c r="B225" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1">
         <v>225.0</v>
       </c>
-      <c r="B226" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>227</v>
+      <c r="B226" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1">
         <v>226.0</v>
       </c>
-      <c r="B227" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>228</v>
+      <c r="B227" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1">
         <v>227.0</v>
       </c>
-      <c r="B228" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>229</v>
+      <c r="B228" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1">
         <v>228.0</v>
       </c>
-      <c r="B229" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>230</v>
+      <c r="B229" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1">
         <v>229.0</v>
       </c>
-      <c r="B230" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>231</v>
+      <c r="B230" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1">
         <v>230.0</v>
       </c>
-      <c r="B231" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>232</v>
+      <c r="B231" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1">
         <v>231.0</v>
       </c>
-      <c r="B232" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>233</v>
+      <c r="B232" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1">
         <v>232.0</v>
       </c>
-      <c r="B233" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>234</v>
+      <c r="B233" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1">
         <v>233.0</v>
       </c>
-      <c r="B234" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>235</v>
+      <c r="B234" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1">
         <v>234.0</v>
       </c>
-      <c r="B235" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>236</v>
+      <c r="B235" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1">
         <v>235.0</v>
       </c>
-      <c r="B236" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>237</v>
+      <c r="B236" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1">
         <v>236.0</v>
       </c>
-      <c r="B237" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>238</v>
+      <c r="B237" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1">
         <v>237.0</v>
       </c>
-      <c r="B238" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>239</v>
+      <c r="B238" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1">
         <v>238.0</v>
       </c>
-      <c r="B239" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>240</v>
+      <c r="B239" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1">
         <v>239.0</v>
       </c>
-      <c r="B240" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>241</v>
+      <c r="B240" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1">
         <v>240.0</v>
       </c>
-      <c r="B241" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>242</v>
+      <c r="B241" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1">
         <v>241.0</v>
       </c>
-      <c r="B242" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>243</v>
+      <c r="B242" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1">
         <v>242.0</v>
       </c>
-      <c r="B243" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>244</v>
+      <c r="B243" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1">
         <v>243.0</v>
       </c>
-      <c r="B244" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>245</v>
+      <c r="B244" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1">
         <v>244.0</v>
       </c>
-      <c r="B245" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>246</v>
+      <c r="B245" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1">
         <v>245.0</v>
       </c>
-      <c r="B246" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>247</v>
+      <c r="B246" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1">
         <v>246.0</v>
       </c>
-      <c r="B247" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>248</v>
+      <c r="B247" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1">
         <v>247.0</v>
       </c>
-      <c r="B248" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>249</v>
+      <c r="B248" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1">
         <v>248.0</v>
       </c>
-      <c r="B249" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>250</v>
+      <c r="B249" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1">
         <v>249.0</v>
       </c>
-      <c r="B250" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>251</v>
+      <c r="B250" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1">
         <v>250.0</v>
       </c>
-      <c r="B251" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>252</v>
+      <c r="B251" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1">
         <v>251.0</v>
       </c>
-      <c r="B252" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>253</v>
+      <c r="B252" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1">
         <v>252.0</v>
       </c>
-      <c r="B253" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>254</v>
+      <c r="B253" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1">
         <v>253.0</v>
       </c>
-      <c r="B254" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>255</v>
+      <c r="B254" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1">
         <v>254.0</v>
       </c>
-      <c r="B255" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>256</v>
+      <c r="B255" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1">
         <v>255.0</v>
       </c>
-      <c r="B256" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>257</v>
+      <c r="B256" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1">
         <v>256.0</v>
       </c>
-      <c r="B257" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>258</v>
+      <c r="B257" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1">
         <v>257.0</v>
       </c>
-      <c r="B258" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>259</v>
+      <c r="B258" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1">
         <v>258.0</v>
       </c>
-      <c r="B259" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>260</v>
+      <c r="B259" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1">
         <v>259.0</v>
       </c>
-      <c r="B260" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>261</v>
+      <c r="B260" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1">
         <v>260.0</v>
       </c>
-      <c r="B261" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>262</v>
+      <c r="B261" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1">
         <v>261.0</v>
       </c>
-      <c r="B262" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>263</v>
+      <c r="B262" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1">
         <v>262.0</v>
       </c>
-      <c r="B263" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>264</v>
+      <c r="B263" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1">
         <v>263.0</v>
       </c>
-      <c r="B264" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>265</v>
+      <c r="B264" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1">
         <v>264.0</v>
       </c>
-      <c r="B265" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>266</v>
+      <c r="B265" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1">
         <v>265.0</v>
       </c>
-      <c r="B266" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>267</v>
+      <c r="B266" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1">
         <v>266.0</v>
       </c>
-      <c r="B267" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>268</v>
+      <c r="B267" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1">
         <v>267.0</v>
       </c>
-      <c r="B268" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>269</v>
+      <c r="B268" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1">
         <v>268.0</v>
       </c>
-      <c r="B269" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>270</v>
+      <c r="B269" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1">
         <v>269.0</v>
       </c>
-      <c r="B270" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>271</v>
+      <c r="B270" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1">
         <v>270.0</v>
       </c>
-      <c r="B271" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>272</v>
+      <c r="B271" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1">
         <v>271.0</v>
       </c>
-      <c r="B272" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>273</v>
+      <c r="B272" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1">
         <v>272.0</v>
       </c>
-      <c r="B273" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>274</v>
+      <c r="B273" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1">
         <v>273.0</v>
       </c>
-      <c r="B274" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>275</v>
+      <c r="B274" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1">
         <v>274.0</v>
       </c>
-      <c r="B275" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>276</v>
+      <c r="B275" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1">
         <v>275.0</v>
       </c>
-      <c r="B276" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>277</v>
+      <c r="B276" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1">
         <v>276.0</v>
       </c>
-      <c r="B277" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>278</v>
+      <c r="B277" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1">
         <v>277.0</v>
       </c>
-      <c r="B278" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>279</v>
+      <c r="B278" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1">
         <v>278.0</v>
       </c>
-      <c r="B279" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>280</v>
+      <c r="B279" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1">
         <v>279.0</v>
       </c>
-      <c r="B280" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>281</v>
+      <c r="B280" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1">
         <v>280.0</v>
       </c>
-      <c r="B281" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>282</v>
+      <c r="B281" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1">
         <v>281.0</v>
       </c>
-      <c r="B282" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>283</v>
+      <c r="B282" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1">
         <v>282.0</v>
       </c>
-      <c r="B283" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>284</v>
+      <c r="B283" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1">
         <v>283.0</v>
       </c>
-      <c r="B284" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>285</v>
+      <c r="B284" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1">
         <v>284.0</v>
       </c>
-      <c r="B285" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>286</v>
+      <c r="B285" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1">
         <v>285.0</v>
       </c>
-      <c r="B286" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>287</v>
+      <c r="B286" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1">
         <v>286.0</v>
       </c>
-      <c r="B287" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>288</v>
+      <c r="B287" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1">
         <v>287.0</v>
       </c>
-      <c r="B288" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>289</v>
+      <c r="B288" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1">
         <v>288.0</v>
       </c>
-      <c r="B289" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>290</v>
+      <c r="B289" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1">
         <v>289.0</v>
       </c>
-      <c r="B290" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>291</v>
+      <c r="B290" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1">
         <v>290.0</v>
       </c>
-      <c r="B291" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>292</v>
+      <c r="B291" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1">
         <v>291.0</v>
       </c>
-      <c r="B292" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>293</v>
+      <c r="B292" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1">
         <v>292.0</v>
       </c>
-      <c r="B293" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>294</v>
+      <c r="B293" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1">
         <v>293.0</v>
       </c>
-      <c r="B294" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>295</v>
+      <c r="B294" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1">
         <v>294.0</v>
       </c>
-      <c r="B295" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>296</v>
+      <c r="B295" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1">
         <v>295.0</v>
       </c>
-      <c r="B296" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>297</v>
+      <c r="B296" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1">
         <v>296.0</v>
       </c>
-      <c r="B297" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>298</v>
+      <c r="B297" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1">
         <v>297.0</v>
       </c>
-      <c r="B298" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>299</v>
+      <c r="B298" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1">
         <v>298.0</v>
       </c>
-      <c r="B299" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>300</v>
+      <c r="B299" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1">
         <v>299.0</v>
       </c>
-      <c r="B300" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>301</v>
+      <c r="B300" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1">
         <v>300.0</v>
       </c>
-      <c r="B301" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>302</v>
+      <c r="B301" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1">
         <v>301.0</v>
       </c>
-      <c r="B302" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>303</v>
+      <c r="B302" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1">
         <v>302.0</v>
       </c>
-      <c r="B303" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>304</v>
+      <c r="B303" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1">
         <v>303.0</v>
       </c>
-      <c r="B304" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>305</v>
+      <c r="B304" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1">
         <v>304.0</v>
       </c>
-      <c r="B305" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>306</v>
+      <c r="B305" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1">
         <v>305.0</v>
       </c>
-      <c r="B306" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>307</v>
+      <c r="B306" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1">
         <v>306.0</v>
       </c>
-      <c r="B307" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>308</v>
+      <c r="B307" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1">
         <v>307.0</v>
       </c>
-      <c r="B308" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>309</v>
+      <c r="B308" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1">
         <v>308.0</v>
       </c>
-      <c r="B309" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>310</v>
+      <c r="B309" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1">
         <v>309.0</v>
       </c>
-      <c r="B310" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>311</v>
+      <c r="B310" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1">
         <v>310.0</v>
       </c>
-      <c r="B311" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>312</v>
+      <c r="B311" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1">
         <v>311.0</v>
       </c>
-      <c r="B312" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>313</v>
+      <c r="B312" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1">
         <v>312.0</v>
       </c>
-      <c r="B313" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>314</v>
+      <c r="B313" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1">
         <v>313.0</v>
       </c>
-      <c r="B314" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>315</v>
+      <c r="B314" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1">
         <v>314.0</v>
       </c>
-      <c r="B315" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>316</v>
+      <c r="B315" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1">
         <v>315.0</v>
       </c>
-      <c r="B316" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>317</v>
+      <c r="B316" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1">
         <v>316.0</v>
       </c>
-      <c r="B317" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>318</v>
+      <c r="B317" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1">
         <v>317.0</v>
       </c>
-      <c r="B318" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>319</v>
+      <c r="B318" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1">
         <v>318.0</v>
       </c>
-      <c r="B319" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>320</v>
+      <c r="B319" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1">
         <v>319.0</v>
       </c>
-      <c r="B320" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>321</v>
+      <c r="B320" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1">
         <v>320.0</v>
       </c>
-      <c r="B321" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>322</v>
+      <c r="B321" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1">
         <v>321.0</v>
       </c>
-      <c r="B322" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>323</v>
+      <c r="B322" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1">
         <v>322.0</v>
       </c>
-      <c r="B323" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>324</v>
+      <c r="B323" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1">
         <v>323.0</v>
       </c>
-      <c r="B324" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>325</v>
+      <c r="B324" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1">
         <v>324.0</v>
       </c>
-      <c r="B325" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>326</v>
+      <c r="B325" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1">
         <v>325.0</v>
       </c>
-      <c r="B326" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>327</v>
+      <c r="B326" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1">
         <v>326.0</v>
       </c>
-      <c r="B327" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>301</v>
+      <c r="B327" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1">
         <v>327.0</v>
       </c>
-      <c r="B328" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>328</v>
+      <c r="B328" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1">
         <v>328.0</v>
       </c>
-      <c r="B329" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>329</v>
+      <c r="B329" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1">
         <v>329.0</v>
       </c>
-      <c r="B330" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>330</v>
+      <c r="B330" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1">
         <v>330.0</v>
       </c>
-      <c r="B331" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>331</v>
+      <c r="B331" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1">
         <v>331.0</v>
       </c>
-      <c r="B332" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>332</v>
+      <c r="B332" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1">
         <v>332.0</v>
       </c>
-      <c r="B333" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>118</v>
+      <c r="B333" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1">
         <v>333.0</v>
       </c>
-      <c r="B334" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>333</v>
+      <c r="B334" s="1" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1">
         <v>334.0</v>
       </c>
-      <c r="B335" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>334</v>
+      <c r="B335" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1">
         <v>335.0</v>
       </c>
-      <c r="B336" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>335</v>
+      <c r="B336" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1">
         <v>336.0</v>
       </c>
-      <c r="B337" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>336</v>
+      <c r="B337" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1">
         <v>337.0</v>
       </c>
-      <c r="B338" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>337</v>
+      <c r="B338" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1">
         <v>338.0</v>
       </c>
-      <c r="B339" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>338</v>
+      <c r="B339" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1">
         <v>339.0</v>
       </c>
-      <c r="B340" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>256</v>
+      <c r="B340" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1">
         <v>340.0</v>
       </c>
-      <c r="B341" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>339</v>
+      <c r="B341" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1">
         <v>341.0</v>
       </c>
-      <c r="B342" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>340</v>
+      <c r="B342" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1">
         <v>342.0</v>
       </c>
-      <c r="B343" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>341</v>
+      <c r="B343" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1">
         <v>343.0</v>
       </c>
-      <c r="B344" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>342</v>
+      <c r="B344" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1">
         <v>344.0</v>
       </c>
-      <c r="B345" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>343</v>
+      <c r="B345" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1">
         <v>345.0</v>
       </c>
-      <c r="B346" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>344</v>
+      <c r="B346" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1">
         <v>346.0</v>
       </c>
-      <c r="B347" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>345</v>
+      <c r="B347" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1">
         <v>347.0</v>
       </c>
-      <c r="B348" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>346</v>
+      <c r="B348" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1">
         <v>348.0</v>
       </c>
-      <c r="B349" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>347</v>
+      <c r="B349" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1">
         <v>349.0</v>
       </c>
-      <c r="B350" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>348</v>
+      <c r="B350" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1">
         <v>350.0</v>
       </c>
-      <c r="B351" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>349</v>
+      <c r="B351" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1">
         <v>351.0</v>
       </c>
-      <c r="B352" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>350</v>
+      <c r="B352" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1">
         <v>352.0</v>
       </c>
-      <c r="B353" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>351</v>
+      <c r="B353" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1">
         <v>353.0</v>
       </c>
-      <c r="B354" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>352</v>
+      <c r="B354" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1">
         <v>354.0</v>
       </c>
-      <c r="B355" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>353</v>
+      <c r="B355" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1">
         <v>355.0</v>
       </c>
-      <c r="B356" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>341</v>
+      <c r="B356" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1">
         <v>356.0</v>
       </c>
-      <c r="B357" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>354</v>
+      <c r="B357" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1">
         <v>357.0</v>
       </c>
-      <c r="B358" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>355</v>
+      <c r="B358" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1">
         <v>358.0</v>
       </c>
-      <c r="B359" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>356</v>
+      <c r="B359" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1">
         <v>359.0</v>
       </c>
-      <c r="B360" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>357</v>
+      <c r="B360" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1">
         <v>360.0</v>
       </c>
-      <c r="B361" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>358</v>
+      <c r="B361" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1">
         <v>361.0</v>
       </c>
-      <c r="B362" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>359</v>
+      <c r="B362" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1">
         <v>362.0</v>
       </c>
-      <c r="B363" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>360</v>
+      <c r="B363" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1">
         <v>363.0</v>
       </c>
-      <c r="B364" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>361</v>
+      <c r="B364" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1">
         <v>364.0</v>
       </c>
-      <c r="B365" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>362</v>
+      <c r="B365" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1">
         <v>365.0</v>
       </c>
-      <c r="B366" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>363</v>
+      <c r="B366" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1">
         <v>366.0</v>
       </c>
-      <c r="B367" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>364</v>
+      <c r="B367" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1">
         <v>367.0</v>
       </c>
-      <c r="B368" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>365</v>
+      <c r="B368" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1">
         <v>368.0</v>
       </c>
-      <c r="B369" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>366</v>
+      <c r="B369" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1">
         <v>369.0</v>
       </c>
-      <c r="B370" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>367</v>
+      <c r="B370" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1">
         <v>370.0</v>
       </c>
-      <c r="B371" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>368</v>
+      <c r="B371" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1">
         <v>371.0</v>
       </c>
-      <c r="B372" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>369</v>
+      <c r="B372" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1">
         <v>372.0</v>
       </c>
-      <c r="B373" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>370</v>
+      <c r="B373" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1">
         <v>373.0</v>
       </c>
-      <c r="B374" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>371</v>
+      <c r="B374" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1">
         <v>374.0</v>
       </c>
-      <c r="B375" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>372</v>
+      <c r="B375" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1">
         <v>375.0</v>
       </c>
-      <c r="B376" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>373</v>
+      <c r="B376" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1">
         <v>376.0</v>
       </c>
-      <c r="B377" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>374</v>
+      <c r="B377" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1">
         <v>377.0</v>
       </c>
-      <c r="B378" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>375</v>
+      <c r="B378" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1">
         <v>378.0</v>
       </c>
-      <c r="B379" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>376</v>
+      <c r="B379" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1">
         <v>379.0</v>
       </c>
-      <c r="B380" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>377</v>
+      <c r="B380" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1">
         <v>380.0</v>
       </c>
-      <c r="B381" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>378</v>
+      <c r="B381" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1">
         <v>381.0</v>
       </c>
-      <c r="B382" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>379</v>
+      <c r="B382" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1">
         <v>382.0</v>
       </c>
-      <c r="B383" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>380</v>
+      <c r="B383" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1">
         <v>383.0</v>
       </c>
-      <c r="B384" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>381</v>
+      <c r="B384" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1">
         <v>384.0</v>
       </c>
-      <c r="B385" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>382</v>
+      <c r="B385" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1">
         <v>385.0</v>
       </c>
-      <c r="B386" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>383</v>
+      <c r="B386" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1">
         <v>386.0</v>
       </c>
-      <c r="B387" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>384</v>
+      <c r="B387" s="1" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1">
         <v>387.0</v>
       </c>
-      <c r="B388" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>385</v>
+      <c r="B388" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1">
         <v>388.0</v>
       </c>
-      <c r="B389" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>386</v>
+      <c r="B389" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1">
         <v>389.0</v>
       </c>
-      <c r="B390" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>387</v>
+      <c r="B390" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1">
         <v>390.0</v>
       </c>
-      <c r="B391" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>388</v>
+      <c r="B391" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1">
         <v>391.0</v>
       </c>
-      <c r="B392" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>389</v>
+      <c r="B392" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1">
         <v>392.0</v>
       </c>
-      <c r="B393" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>390</v>
+      <c r="B393" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1">
         <v>393.0</v>
       </c>
-      <c r="B394" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>391</v>
+      <c r="B394" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1">
         <v>394.0</v>
       </c>
-      <c r="B395" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>392</v>
+      <c r="B395" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1">
         <v>395.0</v>
       </c>
-      <c r="B396" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C396" s="1" t="s">
-        <v>393</v>
+      <c r="B396" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1">
         <v>396.0</v>
       </c>
-      <c r="B397" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>394</v>
+      <c r="B397" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1">
         <v>397.0</v>
       </c>
-      <c r="B398" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>395</v>
+      <c r="B398" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1">
         <v>398.0</v>
       </c>
-      <c r="B399" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>396</v>
+      <c r="B399" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1">
         <v>399.0</v>
       </c>
-      <c r="B400" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C400" s="1" t="s">
-        <v>397</v>
+      <c r="B400" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1">
         <v>400.0</v>
       </c>
-      <c r="B401" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>398</v>
+      <c r="B401" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1">
         <v>401.0</v>
       </c>
-      <c r="B402" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>399</v>
+      <c r="B402" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1">
         <v>402.0</v>
       </c>
-      <c r="B403" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>400</v>
+      <c r="B403" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1">
         <v>403.0</v>
       </c>
-      <c r="B404" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>401</v>
+      <c r="B404" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1">
         <v>404.0</v>
       </c>
-      <c r="B405" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>402</v>
+      <c r="B405" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1">
         <v>405.0</v>
       </c>
-      <c r="B406" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>403</v>
+      <c r="B406" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1">
         <v>406.0</v>
       </c>
-      <c r="B407" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>404</v>
+      <c r="B407" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1">
         <v>407.0</v>
       </c>
-      <c r="B408" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>405</v>
+      <c r="B408" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1">
         <v>408.0</v>
       </c>
-      <c r="B409" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>406</v>
+      <c r="B409" s="1" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1">
         <v>409.0</v>
       </c>
-      <c r="B410" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>407</v>
+      <c r="B410" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1">
         <v>410.0</v>
       </c>
-      <c r="B411" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>408</v>
+      <c r="B411" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1">
         <v>411.0</v>
       </c>
-      <c r="B412" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>409</v>
+      <c r="B412" s="1" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1">
         <v>412.0</v>
       </c>
-      <c r="B413" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>410</v>
+      <c r="B413" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -6689,10 +5447,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="2">
@@ -6700,7 +5458,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3">
@@ -6708,7 +5466,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4">
@@ -6716,7 +5474,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5">
@@ -6724,7 +5482,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6">
@@ -6732,7 +5490,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7">
@@ -6740,7 +5498,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8">
@@ -6748,7 +5506,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9">
@@ -6756,7 +5514,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10">
@@ -6764,7 +5522,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11">
@@ -6772,7 +5530,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12">
@@ -6780,7 +5538,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13">
@@ -6788,7 +5546,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14">
@@ -6796,7 +5554,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15">
@@ -6804,7 +5562,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16">
@@ -6812,7 +5570,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17">
@@ -10768,13 +9526,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="2">
@@ -10783,7 +9541,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3">
@@ -10794,7 +9552,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4">
@@ -10805,7 +9563,7 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5">
@@ -10816,7 +9574,7 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6">
@@ -10827,7 +9585,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7">
@@ -10838,7 +9596,7 @@
         <v>2.0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8">
@@ -10849,7 +9607,7 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9">
@@ -10860,7 +9618,7 @@
         <v>2.0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10">
@@ -10871,7 +9629,7 @@
         <v>2.0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11">
@@ -10882,7 +9640,7 @@
         <v>2.0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12">
@@ -10893,7 +9651,7 @@
         <v>2.0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13">
@@ -10904,7 +9662,7 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14">
@@ -10915,7 +9673,7 @@
         <v>2.0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15">
@@ -10926,7 +9684,7 @@
         <v>2.0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16">
@@ -10937,7 +9695,7 @@
         <v>2.0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17">
@@ -10948,7 +9706,7 @@
         <v>2.0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18">
@@ -10959,7 +9717,7 @@
         <v>2.0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19">
@@ -10970,7 +9728,7 @@
         <v>2.0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20">
@@ -10981,7 +9739,7 @@
         <v>3.0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21">
@@ -10992,7 +9750,7 @@
         <v>3.0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22">
@@ -11003,7 +9761,7 @@
         <v>3.0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23">
@@ -11014,7 +9772,7 @@
         <v>3.0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24">
@@ -11025,7 +9783,7 @@
         <v>3.0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25">
@@ -11036,7 +9794,7 @@
         <v>3.0</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26">
@@ -11047,7 +9805,7 @@
         <v>3.0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27">
@@ -11058,7 +9816,7 @@
         <v>3.0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28">
@@ -11069,7 +9827,7 @@
         <v>3.0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29">
@@ -11080,7 +9838,7 @@
         <v>3.0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30">
@@ -11091,7 +9849,7 @@
         <v>3.0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31">
@@ -11102,7 +9860,7 @@
         <v>3.0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32">
@@ -11113,7 +9871,7 @@
         <v>3.0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33">
@@ -11124,7 +9882,7 @@
         <v>3.0</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34">
@@ -11135,7 +9893,7 @@
         <v>3.0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35">
@@ -11146,7 +9904,7 @@
         <v>3.0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36">
@@ -11157,7 +9915,7 @@
         <v>3.0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37">
@@ -11168,7 +9926,7 @@
         <v>3.0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38">
@@ -11179,7 +9937,7 @@
         <v>3.0</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39">
@@ -11190,7 +9948,7 @@
         <v>3.0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40">
@@ -11201,7 +9959,7 @@
         <v>3.0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41">
@@ -11212,7 +9970,7 @@
         <v>3.0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42">
@@ -11223,7 +9981,7 @@
         <v>4.0</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43">
@@ -11234,7 +9992,7 @@
         <v>4.0</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44">
@@ -11245,7 +10003,7 @@
         <v>4.0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45">
@@ -11256,7 +10014,7 @@
         <v>4.0</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46">
@@ -11267,7 +10025,7 @@
         <v>4.0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47">
@@ -11278,7 +10036,7 @@
         <v>4.0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48">
@@ -11289,7 +10047,7 @@
         <v>4.0</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49">
@@ -11300,7 +10058,7 @@
         <v>4.0</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50">
@@ -11311,7 +10069,7 @@
         <v>4.0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51">
@@ -11322,7 +10080,7 @@
         <v>4.0</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="52">
@@ -11333,7 +10091,7 @@
         <v>4.0</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53">
@@ -11344,7 +10102,7 @@
         <v>4.0</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54">
@@ -11355,7 +10113,7 @@
         <v>4.0</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55">
@@ -11366,7 +10124,7 @@
         <v>4.0</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56">
@@ -11377,7 +10135,7 @@
         <v>4.0</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57">
@@ -11388,7 +10146,7 @@
         <v>4.0</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58">
@@ -11399,7 +10157,7 @@
         <v>4.0</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59">
@@ -11410,7 +10168,7 @@
         <v>4.0</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60">
@@ -11421,7 +10179,7 @@
         <v>4.0</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="61">
@@ -11432,7 +10190,7 @@
         <v>4.0</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62">
@@ -11443,7 +10201,7 @@
         <v>4.0</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63">
@@ -11454,7 +10212,7 @@
         <v>4.0</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64">
@@ -11465,7 +10223,7 @@
         <v>4.0</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="65">
@@ -11476,7 +10234,7 @@
         <v>4.0</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66">
@@ -11487,7 +10245,7 @@
         <v>5.0</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67">
@@ -11498,7 +10256,7 @@
         <v>5.0</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68">
@@ -11509,7 +10267,7 @@
         <v>5.0</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69">
@@ -11520,7 +10278,7 @@
         <v>5.0</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="70">
@@ -11531,7 +10289,7 @@
         <v>5.0</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71">
@@ -11542,7 +10300,7 @@
         <v>5.0</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="72">
@@ -11553,7 +10311,7 @@
         <v>5.0</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73">
@@ -11564,7 +10322,7 @@
         <v>5.0</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74">
@@ -11575,7 +10333,7 @@
         <v>5.0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="75">
@@ -11586,7 +10344,7 @@
         <v>5.0</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76">
@@ -11597,7 +10355,7 @@
         <v>5.0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77">
@@ -11608,7 +10366,7 @@
         <v>5.0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="78">
@@ -11619,7 +10377,7 @@
         <v>5.0</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="79">
@@ -11630,7 +10388,7 @@
         <v>5.0</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="80">
@@ -11641,7 +10399,7 @@
         <v>5.0</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="81">
@@ -11652,7 +10410,7 @@
         <v>5.0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="82">
@@ -11663,7 +10421,7 @@
         <v>5.0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="83">
@@ -11674,7 +10432,7 @@
         <v>5.0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="84">
@@ -11685,7 +10443,7 @@
         <v>5.0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85">
@@ -11696,7 +10454,7 @@
         <v>5.0</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="86">
@@ -11707,7 +10465,7 @@
         <v>5.0</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="87">
@@ -11718,7 +10476,7 @@
         <v>5.0</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="88">
@@ -11729,7 +10487,7 @@
         <v>6.0</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="89">
@@ -11740,7 +10498,7 @@
         <v>6.0</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="90">
@@ -11751,7 +10509,7 @@
         <v>6.0</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="91">
@@ -11762,7 +10520,7 @@
         <v>6.0</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="92">
@@ -11773,7 +10531,7 @@
         <v>6.0</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="93">
@@ -11784,7 +10542,7 @@
         <v>6.0</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="94">
@@ -11795,7 +10553,7 @@
         <v>6.0</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="95">
@@ -11806,7 +10564,7 @@
         <v>6.0</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="96">
@@ -11817,7 +10575,7 @@
         <v>6.0</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="97">
@@ -11828,7 +10586,7 @@
         <v>6.0</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="98">
@@ -11839,7 +10597,7 @@
         <v>6.0</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="99">
@@ -11850,7 +10608,7 @@
         <v>6.0</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="100">
@@ -11861,7 +10619,7 @@
         <v>6.0</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="101">
@@ -11872,7 +10630,7 @@
         <v>6.0</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="102">
@@ -11883,7 +10641,7 @@
         <v>6.0</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="103">
@@ -11894,7 +10652,7 @@
         <v>6.0</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="104">
@@ -11905,7 +10663,7 @@
         <v>6.0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="105">
@@ -11916,7 +10674,7 @@
         <v>6.0</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="106">
@@ -11927,7 +10685,7 @@
         <v>6.0</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="107">
@@ -11938,7 +10696,7 @@
         <v>6.0</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="108">
@@ -11949,7 +10707,7 @@
         <v>6.0</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="109">
@@ -11960,7 +10718,7 @@
         <v>6.0</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="110">
@@ -11971,7 +10729,7 @@
         <v>6.0</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="111">
@@ -11982,7 +10740,7 @@
         <v>6.0</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="112">
@@ -11993,7 +10751,7 @@
         <v>7.0</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="113">
@@ -12004,7 +10762,7 @@
         <v>7.0</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="114">
@@ -12015,7 +10773,7 @@
         <v>7.0</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="115">
@@ -12026,7 +10784,7 @@
         <v>7.0</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="116">
@@ -12037,7 +10795,7 @@
         <v>7.0</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="117">
@@ -12048,7 +10806,7 @@
         <v>7.0</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="118">
@@ -12059,7 +10817,7 @@
         <v>7.0</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="119">
@@ -12070,7 +10828,7 @@
         <v>7.0</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="120">
@@ -12081,7 +10839,7 @@
         <v>7.0</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="121">
@@ -12092,7 +10850,7 @@
         <v>7.0</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="122">
@@ -12103,7 +10861,7 @@
         <v>7.0</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="123">
@@ -12114,7 +10872,7 @@
         <v>7.0</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="124">
@@ -12125,7 +10883,7 @@
         <v>7.0</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="125">
@@ -12136,7 +10894,7 @@
         <v>7.0</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="126">
@@ -12147,7 +10905,7 @@
         <v>7.0</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="127">
@@ -12158,7 +10916,7 @@
         <v>7.0</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="128">
@@ -12169,7 +10927,7 @@
         <v>7.0</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="129">
@@ -12180,7 +10938,7 @@
         <v>7.0</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="130">
@@ -12191,7 +10949,7 @@
         <v>7.0</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="131">
@@ -12202,7 +10960,7 @@
         <v>7.0</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="132">
@@ -12213,7 +10971,7 @@
         <v>7.0</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="133">
@@ -12224,7 +10982,7 @@
         <v>7.0</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="134">
@@ -12235,7 +10993,7 @@
         <v>7.0</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="135">
@@ -12246,7 +11004,7 @@
         <v>7.0</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="136">
@@ -12257,7 +11015,7 @@
         <v>8.0</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="137">
@@ -12268,7 +11026,7 @@
         <v>8.0</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="138">
@@ -12279,7 +11037,7 @@
         <v>8.0</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="139">
@@ -12290,7 +11048,7 @@
         <v>8.0</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="140">
@@ -12301,7 +11059,7 @@
         <v>8.0</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="141">
@@ -12312,7 +11070,7 @@
         <v>8.0</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="142">
@@ -12323,7 +11081,7 @@
         <v>8.0</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="143">
@@ -12334,7 +11092,7 @@
         <v>8.0</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="144">
@@ -12345,7 +11103,7 @@
         <v>8.0</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="145">
@@ -12356,7 +11114,7 @@
         <v>8.0</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="146">
@@ -12367,7 +11125,7 @@
         <v>8.0</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="147">
@@ -12378,7 +11136,7 @@
         <v>8.0</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="148">
@@ -12389,7 +11147,7 @@
         <v>8.0</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="149">
@@ -12400,7 +11158,7 @@
         <v>8.0</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="150">
@@ -12411,7 +11169,7 @@
         <v>8.0</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="151">
@@ -12422,7 +11180,7 @@
         <v>8.0</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="152">
@@ -12433,7 +11191,7 @@
         <v>8.0</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="153">
@@ -12444,7 +11202,7 @@
         <v>8.0</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="154">
@@ -12455,7 +11213,7 @@
         <v>8.0</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="155">
@@ -12466,7 +11224,7 @@
         <v>8.0</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="156">
@@ -12477,7 +11235,7 @@
         <v>8.0</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="157">
@@ -12488,7 +11246,7 @@
         <v>8.0</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="158">
@@ -12499,7 +11257,7 @@
         <v>9.0</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="159">
@@ -12510,7 +11268,7 @@
         <v>9.0</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="160">
@@ -12521,7 +11279,7 @@
         <v>9.0</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="161">
@@ -12532,7 +11290,7 @@
         <v>9.0</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="162">
@@ -12543,7 +11301,7 @@
         <v>9.0</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="163">
@@ -12554,7 +11312,7 @@
         <v>9.0</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="164">
@@ -12565,7 +11323,7 @@
         <v>9.0</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="165">
@@ -12576,7 +11334,7 @@
         <v>9.0</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="166">
@@ -12587,7 +11345,7 @@
         <v>9.0</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="167">
@@ -12598,7 +11356,7 @@
         <v>9.0</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="168">
@@ -12609,7 +11367,7 @@
         <v>9.0</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="169">
@@ -12620,7 +11378,7 @@
         <v>9.0</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="170">
@@ -12631,7 +11389,7 @@
         <v>9.0</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="171">
@@ -12642,7 +11400,7 @@
         <v>9.0</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="172">
@@ -12653,7 +11411,7 @@
         <v>9.0</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="173">
@@ -12664,7 +11422,7 @@
         <v>9.0</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="174">
@@ -12675,7 +11433,7 @@
         <v>9.0</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="175">
@@ -12686,7 +11444,7 @@
         <v>9.0</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="176">
@@ -12697,7 +11455,7 @@
         <v>9.0</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="177">
@@ -12708,7 +11466,7 @@
         <v>9.0</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="178">
@@ -12719,7 +11477,7 @@
         <v>9.0</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="179">
@@ -12730,7 +11488,7 @@
         <v>9.0</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="180">
@@ -12741,7 +11499,7 @@
         <v>9.0</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="181">
@@ -12752,7 +11510,7 @@
         <v>9.0</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="182">
@@ -12761,7 +11519,7 @@
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="183">
